--- a/doc/Burndown Chart.xlsx
+++ b/doc/Burndown Chart.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\locky\OneDrive\Documents\GitHub\IFB299\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\locky\OneDrive\Documents\GitHub\IFB299\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="53">
   <si>
     <t>Backlog Item</t>
   </si>
@@ -140,9 +140,6 @@
     <t>User Story #23 - View hotel information - businessman</t>
   </si>
   <si>
-    <t>User Story #11 - Select city</t>
-  </si>
-  <si>
     <t>User Story #40 - Change account</t>
   </si>
   <si>
@@ -186,6 +183,9 @@
   </si>
   <si>
     <t>User Story #50 - View City Map</t>
+  </si>
+  <si>
+    <t>Time taken (hrs)</t>
   </si>
 </sst>
 </file>
@@ -316,7 +316,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -339,9 +339,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -417,6 +414,13 @@
           </c:marker>
           <c:cat>
             <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$D$18:$X$18</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
               <c:f>Sheet1!$D$18:$W$18</c:f>
               <c:strCache>
                 <c:ptCount val="20"/>
@@ -485,39 +489,46 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$39:$W$39</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$D$38:$X$38</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$D$38:$W$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>45</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>37</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>37</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>37</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>31</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>31</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>26</c:v>
@@ -567,6 +578,13 @@
           </c:marker>
           <c:cat>
             <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$D$18:$X$18</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
               <c:f>Sheet1!$D$18:$W$18</c:f>
               <c:strCache>
                 <c:ptCount val="20"/>
@@ -635,66 +653,73 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$38:$W$38</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$D$37:$X$37</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$D$37:$W$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>42.75</c:v>
+                  <c:v>41.8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40.5</c:v>
+                  <c:v>39.599999999999994</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>38.25</c:v>
+                  <c:v>37.399999999999991</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>36</c:v>
+                  <c:v>35.199999999999989</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>33.75</c:v>
+                  <c:v>32.999999999999986</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>31.5</c:v>
+                  <c:v>30.799999999999986</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>29.25</c:v>
+                  <c:v>28.599999999999987</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>27</c:v>
+                  <c:v>26.399999999999988</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>24.75</c:v>
+                  <c:v>24.199999999999989</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>22.5</c:v>
+                  <c:v>21.999999999999989</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>20.25</c:v>
+                  <c:v>19.79999999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>18</c:v>
+                  <c:v>17.599999999999991</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>15.75</c:v>
+                  <c:v>15.399999999999991</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>13.5</c:v>
+                  <c:v>13.199999999999992</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>11.25</c:v>
+                  <c:v>10.999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>9</c:v>
+                  <c:v>8.7999999999999936</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.75</c:v>
+                  <c:v>6.5999999999999934</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.5</c:v>
+                  <c:v>4.3999999999999932</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.25</c:v>
+                  <c:v>2.1999999999999931</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>0</c:v>
@@ -1131,10 +1156,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM137"/>
+  <dimension ref="A1:AN136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1144,6 +1169,7 @@
     <col min="3" max="3" width="18.875" customWidth="1"/>
     <col min="4" max="4" width="17.875" customWidth="1"/>
     <col min="10" max="10" width="14.625" customWidth="1"/>
+    <col min="24" max="24" width="16.5" customWidth="1"/>
     <col min="25" max="25" width="13.125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1176,29 +1202,29 @@
       <c r="Z1" s="3"/>
     </row>
     <row r="2" spans="1:39" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>32</v>
       </c>
       <c r="B2" s="3"/>
-      <c r="C2" s="11"/>
+      <c r="C2" s="10"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
-      <c r="F2" s="11"/>
+      <c r="F2" s="10"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
-      <c r="I2" s="11"/>
+      <c r="I2" s="10"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
-      <c r="L2" s="11"/>
+      <c r="L2" s="10"/>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
-      <c r="O2" s="11"/>
+      <c r="O2" s="10"/>
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
-      <c r="R2" s="11"/>
+      <c r="R2" s="10"/>
       <c r="S2" s="3"/>
       <c r="T2" s="3"/>
-      <c r="U2" s="11"/>
+      <c r="U2" s="10"/>
       <c r="V2" s="3"/>
       <c r="W2" s="3"/>
       <c r="X2" s="3"/>
@@ -1262,64 +1288,64 @@
       <c r="Z4" s="3"/>
     </row>
     <row r="5" spans="1:39" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="13"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="12"/>
       <c r="E5" s="3"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="13"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="12"/>
       <c r="H5" s="3"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="13"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="12"/>
       <c r="K5" s="3"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="13"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="12"/>
       <c r="N5" s="3"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="13"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="12"/>
       <c r="Q5" s="3"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="13"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="12"/>
       <c r="T5" s="3"/>
-      <c r="U5" s="12"/>
-      <c r="V5" s="13"/>
+      <c r="U5" s="11"/>
+      <c r="V5" s="12"/>
       <c r="W5" s="3"/>
       <c r="X5" s="3"/>
       <c r="Y5" s="3"/>
       <c r="Z5" s="3"/>
     </row>
     <row r="6" spans="1:39" ht="30.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="13"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="12"/>
       <c r="E6" s="3"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="13"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="12"/>
       <c r="H6" s="3"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="13"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="12"/>
       <c r="K6" s="3"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="13"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="12"/>
       <c r="N6" s="3"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="13"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="12"/>
       <c r="Q6" s="3"/>
-      <c r="R6" s="12"/>
-      <c r="S6" s="13"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="12"/>
       <c r="T6" s="3"/>
-      <c r="U6" s="12"/>
-      <c r="V6" s="13"/>
+      <c r="U6" s="11"/>
+      <c r="V6" s="12"/>
       <c r="W6" s="3"/>
       <c r="X6" s="3"/>
       <c r="Y6" s="3"/>
@@ -1339,27 +1365,27 @@
       <c r="AM6" s="3"/>
     </row>
     <row r="7" spans="1:39" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="12"/>
+      <c r="A7" s="11"/>
       <c r="B7" s="3"/>
-      <c r="C7" s="12"/>
+      <c r="C7" s="11"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
-      <c r="F7" s="12"/>
+      <c r="F7" s="11"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
-      <c r="I7" s="12"/>
+      <c r="I7" s="11"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
-      <c r="L7" s="12"/>
+      <c r="L7" s="11"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
-      <c r="O7" s="12"/>
+      <c r="O7" s="11"/>
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
-      <c r="R7" s="12"/>
+      <c r="R7" s="11"/>
       <c r="S7" s="3"/>
       <c r="T7" s="3"/>
-      <c r="U7" s="12"/>
+      <c r="U7" s="11"/>
       <c r="V7" s="3"/>
       <c r="W7" s="3"/>
       <c r="X7" s="3"/>
@@ -1380,27 +1406,27 @@
       <c r="AM7" s="3"/>
     </row>
     <row r="8" spans="1:39" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="12"/>
+      <c r="A8" s="11"/>
       <c r="B8" s="3"/>
-      <c r="C8" s="12"/>
+      <c r="C8" s="11"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
-      <c r="F8" s="12"/>
+      <c r="F8" s="11"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
-      <c r="I8" s="12"/>
+      <c r="I8" s="11"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
-      <c r="L8" s="12"/>
+      <c r="L8" s="11"/>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
-      <c r="O8" s="12"/>
+      <c r="O8" s="11"/>
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
-      <c r="R8" s="12"/>
+      <c r="R8" s="11"/>
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
-      <c r="U8" s="12"/>
+      <c r="U8" s="11"/>
       <c r="V8" s="3"/>
       <c r="W8" s="3"/>
       <c r="X8" s="3"/>
@@ -1421,27 +1447,27 @@
       <c r="AM8" s="3"/>
     </row>
     <row r="9" spans="1:39" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="12"/>
+      <c r="A9" s="11"/>
       <c r="B9" s="3"/>
-      <c r="C9" s="12"/>
+      <c r="C9" s="11"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
-      <c r="F9" s="12"/>
+      <c r="F9" s="11"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
-      <c r="I9" s="12"/>
+      <c r="I9" s="11"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
-      <c r="L9" s="12"/>
+      <c r="L9" s="11"/>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
-      <c r="O9" s="12"/>
+      <c r="O9" s="11"/>
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
-      <c r="R9" s="12"/>
+      <c r="R9" s="11"/>
       <c r="S9" s="3"/>
       <c r="T9" s="3"/>
-      <c r="U9" s="12"/>
+      <c r="U9" s="11"/>
       <c r="V9" s="3"/>
       <c r="W9" s="3"/>
       <c r="X9" s="3"/>
@@ -1462,32 +1488,32 @@
       <c r="AM9" s="3"/>
     </row>
     <row r="10" spans="1:39" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="14">
+      <c r="B10" s="13">
         <v>43010</v>
       </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="14"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="13"/>
       <c r="E10" s="3"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="14"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="13"/>
       <c r="H10" s="3"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="14"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="13"/>
       <c r="K10" s="3"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="14"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="13"/>
       <c r="N10" s="3"/>
-      <c r="O10" s="12"/>
-      <c r="P10" s="14"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="13"/>
       <c r="Q10" s="3"/>
-      <c r="R10" s="12"/>
-      <c r="S10" s="14"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="13"/>
       <c r="T10" s="3"/>
-      <c r="U10" s="12"/>
-      <c r="V10" s="14"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="13"/>
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
       <c r="Y10" s="3"/>
@@ -1507,32 +1533,32 @@
       <c r="AM10" s="3"/>
     </row>
     <row r="11" spans="1:39" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="14">
+      <c r="B11" s="13">
         <v>43031</v>
       </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="14"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="13"/>
       <c r="E11" s="3"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="14"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="13"/>
       <c r="H11" s="3"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="14"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="13"/>
       <c r="K11" s="3"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="14"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="13"/>
       <c r="N11" s="3"/>
-      <c r="O11" s="12"/>
-      <c r="P11" s="14"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="13"/>
       <c r="Q11" s="3"/>
-      <c r="R11" s="12"/>
-      <c r="S11" s="14"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="13"/>
       <c r="T11" s="3"/>
-      <c r="U11" s="12"/>
-      <c r="V11" s="14"/>
+      <c r="U11" s="11"/>
+      <c r="V11" s="13"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
@@ -1552,30 +1578,30 @@
       <c r="AM11" s="3"/>
     </row>
     <row r="12" spans="1:39" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="15"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="14"/>
       <c r="E12" s="3"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="15"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="14"/>
       <c r="H12" s="3"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="15"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="14"/>
       <c r="K12" s="3"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="15"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="14"/>
       <c r="N12" s="3"/>
-      <c r="O12" s="12"/>
-      <c r="P12" s="15"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="14"/>
       <c r="Q12" s="3"/>
-      <c r="R12" s="12"/>
-      <c r="S12" s="15"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="14"/>
       <c r="T12" s="3"/>
-      <c r="U12" s="12"/>
-      <c r="V12" s="15"/>
+      <c r="U12" s="11"/>
+      <c r="V12" s="14"/>
       <c r="W12" s="3"/>
       <c r="X12" s="3"/>
       <c r="Y12" s="3"/>
@@ -1758,7 +1784,7 @@
       <c r="AL16" s="3"/>
       <c r="AM16" s="3"/>
     </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="4"/>
       <c r="C17" s="3"/>
@@ -1799,7 +1825,7 @@
       <c r="AL17" s="3"/>
       <c r="AM17" s="3"/>
     </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>0</v>
       </c>
@@ -1869,7 +1895,9 @@
       <c r="W18" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X18" s="3"/>
+      <c r="X18" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="Y18" s="3"/>
       <c r="Z18" s="3"/>
       <c r="AA18" s="3"/>
@@ -1885,16 +1913,17 @@
       <c r="AK18" s="3"/>
       <c r="AL18" s="3"/>
       <c r="AM18" s="3"/>
-    </row>
-    <row r="19" spans="1:39" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="16" t="s">
+      <c r="AN18" s="3"/>
+    </row>
+    <row r="19" spans="1:40" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A19" s="15" t="s">
         <v>33</v>
       </c>
       <c r="B19" s="5">
         <v>4</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D19" s="7">
         <v>4</v>
@@ -1956,7 +1985,9 @@
       <c r="W19" s="7">
         <v>0</v>
       </c>
-      <c r="X19" s="3"/>
+      <c r="X19" s="7">
+        <v>4</v>
+      </c>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
@@ -1972,16 +2003,17 @@
       <c r="AK19" s="3"/>
       <c r="AL19" s="3"/>
       <c r="AM19" s="3"/>
-    </row>
-    <row r="20" spans="1:39" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="17" t="s">
+      <c r="AN19" s="3"/>
+    </row>
+    <row r="20" spans="1:40" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A20" s="16" t="s">
         <v>34</v>
       </c>
       <c r="B20" s="5">
         <v>2</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D20" s="7">
         <v>2</v>
@@ -2043,7 +2075,9 @@
       <c r="W20" s="7">
         <v>0</v>
       </c>
-      <c r="X20" s="3"/>
+      <c r="X20" s="7">
+        <v>3</v>
+      </c>
       <c r="Y20" s="3"/>
       <c r="Z20" s="3"/>
       <c r="AA20" s="3"/>
@@ -2059,16 +2093,17 @@
       <c r="AK20" s="3"/>
       <c r="AL20" s="3"/>
       <c r="AM20" s="3"/>
-    </row>
-    <row r="21" spans="1:39" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="17" t="s">
+      <c r="AN20" s="3"/>
+    </row>
+    <row r="21" spans="1:40" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A21" s="16" t="s">
         <v>35</v>
       </c>
       <c r="B21" s="5">
         <v>2</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D21" s="7">
         <v>2</v>
@@ -2130,7 +2165,9 @@
       <c r="W21" s="7">
         <v>0</v>
       </c>
-      <c r="X21" s="3"/>
+      <c r="X21" s="7">
+        <v>3</v>
+      </c>
       <c r="Y21" s="3"/>
       <c r="Z21" s="3"/>
       <c r="AA21" s="3"/>
@@ -2146,16 +2183,17 @@
       <c r="AK21" s="3"/>
       <c r="AL21" s="3"/>
       <c r="AM21" s="3"/>
-    </row>
-    <row r="22" spans="1:39" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="17" t="s">
+      <c r="AN21" s="3"/>
+    </row>
+    <row r="22" spans="1:40" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A22" s="16" t="s">
         <v>36</v>
       </c>
       <c r="B22" s="5">
         <v>2</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D22" s="7">
         <v>2</v>
@@ -2217,7 +2255,9 @@
       <c r="W22" s="7">
         <v>0</v>
       </c>
-      <c r="X22" s="3"/>
+      <c r="X22" s="7">
+        <v>2</v>
+      </c>
       <c r="Y22" s="3"/>
       <c r="Z22" s="3"/>
       <c r="AA22" s="3"/>
@@ -2233,46 +2273,47 @@
       <c r="AK22" s="3"/>
       <c r="AL22" s="3"/>
       <c r="AM22" s="3"/>
-    </row>
-    <row r="23" spans="1:39" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="17" t="s">
+      <c r="AN22" s="3"/>
+    </row>
+    <row r="23" spans="1:40" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A23" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="10">
-        <v>1</v>
+      <c r="B23" s="5">
+        <v>4</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D23" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E23" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F23" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G23" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H23" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I23" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J23" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K23" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L23" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M23" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N23" s="7">
         <v>0</v>
@@ -2304,7 +2345,9 @@
       <c r="W23" s="7">
         <v>0</v>
       </c>
-      <c r="X23" s="3"/>
+      <c r="X23" s="7">
+        <v>6</v>
+      </c>
       <c r="Y23" s="3"/>
       <c r="Z23" s="3"/>
       <c r="AA23" s="3"/>
@@ -2320,16 +2363,17 @@
       <c r="AK23" s="3"/>
       <c r="AL23" s="3"/>
       <c r="AM23" s="3"/>
-    </row>
-    <row r="24" spans="1:39" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="17" t="s">
+      <c r="AN23" s="3"/>
+    </row>
+    <row r="24" spans="1:40" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A24" s="16" t="s">
         <v>38</v>
       </c>
       <c r="B24" s="5">
         <v>4</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D24" s="7">
         <v>4</v>
@@ -2362,7 +2406,7 @@
         <v>4</v>
       </c>
       <c r="N24" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O24" s="7">
         <v>0</v>
@@ -2391,7 +2435,9 @@
       <c r="W24" s="7">
         <v>0</v>
       </c>
-      <c r="X24" s="3"/>
+      <c r="X24" s="7">
+        <v>4</v>
+      </c>
       <c r="Y24" s="3"/>
       <c r="Z24" s="3"/>
       <c r="AA24" s="3"/>
@@ -2407,49 +2453,50 @@
       <c r="AK24" s="3"/>
       <c r="AL24" s="3"/>
       <c r="AM24" s="3"/>
-    </row>
-    <row r="25" spans="1:39" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="17" t="s">
+      <c r="AN24" s="3"/>
+    </row>
+    <row r="25" spans="1:40" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A25" s="18" t="s">
         <v>39</v>
       </c>
       <c r="B25" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D25" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E25" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F25" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G25" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H25" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I25" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J25" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K25" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L25" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M25" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N25" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O25" s="7">
         <v>0</v>
@@ -2478,32 +2525,27 @@
       <c r="W25" s="7">
         <v>0</v>
       </c>
-      <c r="X25" s="3"/>
+      <c r="X25" s="7">
+        <v>5</v>
+      </c>
       <c r="Y25" s="3"/>
-      <c r="Z25" s="3"/>
-      <c r="AA25" s="3"/>
-      <c r="AB25" s="3"/>
-      <c r="AC25" s="3"/>
-      <c r="AD25" s="3"/>
-      <c r="AE25" s="3"/>
-      <c r="AF25" s="3"/>
-      <c r="AG25" s="3"/>
       <c r="AH25" s="3"/>
       <c r="AI25" s="3"/>
       <c r="AJ25" s="3"/>
       <c r="AK25" s="3"/>
       <c r="AL25" s="3"/>
       <c r="AM25" s="3"/>
-    </row>
-    <row r="26" spans="1:39" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="19" t="s">
+      <c r="AN25" s="3"/>
+    </row>
+    <row r="26" spans="1:40" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A26" s="17" t="s">
         <v>40</v>
       </c>
       <c r="B26" s="5">
         <v>2</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D26" s="7">
         <v>2</v>
@@ -2539,10 +2581,10 @@
         <v>2</v>
       </c>
       <c r="O26" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P26" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q26" s="7">
         <v>0</v>
@@ -2565,24 +2607,27 @@
       <c r="W26" s="7">
         <v>0</v>
       </c>
-      <c r="X26" s="3"/>
-      <c r="AG26" s="3"/>
+      <c r="X26" s="7">
+        <v>2</v>
+      </c>
+      <c r="Y26" s="3"/>
       <c r="AH26" s="3"/>
       <c r="AI26" s="3"/>
       <c r="AJ26" s="3"/>
       <c r="AK26" s="3"/>
       <c r="AL26" s="3"/>
       <c r="AM26" s="3"/>
-    </row>
-    <row r="27" spans="1:39" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="18" t="s">
+      <c r="AN26" s="3"/>
+    </row>
+    <row r="27" spans="1:40" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A27" s="17" t="s">
         <v>41</v>
       </c>
       <c r="B27" s="5">
         <v>2</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D27" s="7">
         <v>2</v>
@@ -2644,24 +2689,22 @@
       <c r="W27" s="7">
         <v>0</v>
       </c>
-      <c r="X27" s="3"/>
-      <c r="AG27" s="3"/>
-      <c r="AH27" s="3"/>
-      <c r="AI27" s="3"/>
-      <c r="AJ27" s="3"/>
-      <c r="AK27" s="3"/>
-      <c r="AL27" s="3"/>
-      <c r="AM27" s="3"/>
-    </row>
-    <row r="28" spans="1:39" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A28" s="18" t="s">
+      <c r="X27" s="7">
+        <v>2</v>
+      </c>
+      <c r="Y27" s="3"/>
+      <c r="Z27" s="3"/>
+      <c r="AA27" s="3"/>
+    </row>
+    <row r="28" spans="1:40" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A28" s="17" t="s">
         <v>42</v>
       </c>
       <c r="B28" s="5">
         <v>2</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D28" s="7">
         <v>2</v>
@@ -2723,19 +2766,22 @@
       <c r="W28" s="7">
         <v>0</v>
       </c>
-      <c r="X28" s="3"/>
+      <c r="X28" s="7">
+        <v>3</v>
+      </c>
       <c r="Y28" s="3"/>
       <c r="Z28" s="3"/>
-    </row>
-    <row r="29" spans="1:39" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="18" t="s">
+      <c r="AA28" s="3"/>
+    </row>
+    <row r="29" spans="1:40" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A29" s="17" t="s">
         <v>43</v>
       </c>
       <c r="B29" s="5">
         <v>2</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D29" s="7">
         <v>2</v>
@@ -2777,7 +2823,7 @@
         <v>2</v>
       </c>
       <c r="Q29" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R29" s="7">
         <v>0</v>
@@ -2797,19 +2843,22 @@
       <c r="W29" s="7">
         <v>0</v>
       </c>
-      <c r="X29" s="3"/>
+      <c r="X29" s="7">
+        <v>3</v>
+      </c>
       <c r="Y29" s="3"/>
       <c r="Z29" s="3"/>
-    </row>
-    <row r="30" spans="1:39" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="18" t="s">
+      <c r="AA29" s="3"/>
+    </row>
+    <row r="30" spans="1:40" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A30" s="19" t="s">
         <v>44</v>
       </c>
       <c r="B30" s="5">
         <v>2</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D30" s="7">
         <v>2</v>
@@ -2871,19 +2920,22 @@
       <c r="W30" s="7">
         <v>0</v>
       </c>
-      <c r="X30" s="3"/>
+      <c r="X30" s="7">
+        <v>3</v>
+      </c>
       <c r="Y30" s="3"/>
       <c r="Z30" s="3"/>
-    </row>
-    <row r="31" spans="1:39" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A31" s="20" t="s">
+      <c r="AA30" s="3"/>
+    </row>
+    <row r="31" spans="1:40" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A31" s="19" t="s">
         <v>45</v>
       </c>
       <c r="B31" s="5">
         <v>2</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D31" s="7">
         <v>2</v>
@@ -2928,7 +2980,7 @@
         <v>2</v>
       </c>
       <c r="R31" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S31" s="7">
         <v>0</v>
@@ -2945,19 +2997,22 @@
       <c r="W31" s="7">
         <v>0</v>
       </c>
-      <c r="X31" s="3"/>
+      <c r="X31" s="7">
+        <v>2</v>
+      </c>
       <c r="Y31" s="3"/>
       <c r="Z31" s="3"/>
-    </row>
-    <row r="32" spans="1:39" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A32" s="20" t="s">
+      <c r="AA31" s="3"/>
+    </row>
+    <row r="32" spans="1:40" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A32" s="19" t="s">
         <v>46</v>
       </c>
       <c r="B32" s="5">
         <v>2</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D32" s="7">
         <v>2</v>
@@ -3019,19 +3074,22 @@
       <c r="W32" s="7">
         <v>0</v>
       </c>
-      <c r="X32" s="3"/>
+      <c r="X32" s="7">
+        <v>2</v>
+      </c>
       <c r="Y32" s="3"/>
       <c r="Z32" s="3"/>
-    </row>
-    <row r="33" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A33" s="20" t="s">
+      <c r="AA32" s="3"/>
+    </row>
+    <row r="33" spans="1:27" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A33" s="19" t="s">
         <v>47</v>
       </c>
       <c r="B33" s="5">
         <v>2</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D33" s="7">
         <v>2</v>
@@ -3079,7 +3137,7 @@
         <v>2</v>
       </c>
       <c r="S33" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T33" s="7">
         <v>0</v>
@@ -3093,19 +3151,22 @@
       <c r="W33" s="7">
         <v>0</v>
       </c>
-      <c r="X33" s="3"/>
+      <c r="X33" s="7">
+        <v>2</v>
+      </c>
       <c r="Y33" s="3"/>
       <c r="Z33" s="3"/>
-    </row>
-    <row r="34" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A34" s="20" t="s">
+      <c r="AA33" s="3"/>
+    </row>
+    <row r="34" spans="1:27" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A34" s="19" t="s">
         <v>48</v>
       </c>
       <c r="B34" s="5">
         <v>2</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D34" s="7">
         <v>2</v>
@@ -3167,67 +3228,70 @@
       <c r="W34" s="7">
         <v>0</v>
       </c>
-      <c r="X34" s="3"/>
+      <c r="X34" s="7">
+        <v>4</v>
+      </c>
       <c r="Y34" s="3"/>
       <c r="Z34" s="3"/>
-    </row>
-    <row r="35" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A35" s="20" t="s">
-        <v>49</v>
+      <c r="AA34" s="3"/>
+    </row>
+    <row r="35" spans="1:27" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A35" s="19" t="s">
+        <v>51</v>
       </c>
       <c r="B35" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D35" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E35" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F35" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G35" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H35" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I35" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J35" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K35" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L35" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M35" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N35" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O35" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P35" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q35" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R35" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S35" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T35" s="7">
         <v>0</v>
@@ -3241,73 +3305,76 @@
       <c r="W35" s="7">
         <v>0</v>
       </c>
-      <c r="X35" s="3"/>
+      <c r="X35" s="7">
+        <v>4</v>
+      </c>
       <c r="Y35" s="3"/>
       <c r="Z35" s="3"/>
-    </row>
-    <row r="36" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A36" s="20" t="s">
-        <v>52</v>
+      <c r="AA35" s="3"/>
+    </row>
+    <row r="36" spans="1:27" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A36" s="19" t="s">
+        <v>49</v>
       </c>
       <c r="B36" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D36" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E36" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F36" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G36" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H36" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I36" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J36" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K36" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L36" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M36" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N36" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O36" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P36" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q36" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R36" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S36" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T36" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U36" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V36" s="7">
         <v>0</v>
@@ -3315,265 +3382,229 @@
       <c r="W36" s="7">
         <v>0</v>
       </c>
-      <c r="X36" s="3"/>
+      <c r="X36" s="7">
+        <v>3</v>
+      </c>
       <c r="Y36" s="3"/>
       <c r="Z36" s="3"/>
-    </row>
-    <row r="37" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A37" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="B37" s="5">
-        <v>2</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D37" s="7">
-        <v>2</v>
-      </c>
-      <c r="E37" s="7">
-        <v>2</v>
-      </c>
-      <c r="F37" s="7">
-        <v>2</v>
-      </c>
-      <c r="G37" s="7">
-        <v>2</v>
-      </c>
-      <c r="H37" s="7">
-        <v>2</v>
-      </c>
-      <c r="I37" s="7">
-        <v>2</v>
-      </c>
-      <c r="J37" s="7">
-        <v>2</v>
-      </c>
-      <c r="K37" s="7">
-        <v>2</v>
-      </c>
-      <c r="L37" s="7">
-        <v>2</v>
-      </c>
-      <c r="M37" s="7">
-        <v>2</v>
-      </c>
-      <c r="N37" s="7">
-        <v>2</v>
-      </c>
-      <c r="O37" s="7">
-        <v>2</v>
-      </c>
-      <c r="P37" s="7">
-        <v>2</v>
-      </c>
-      <c r="Q37" s="7">
-        <v>2</v>
-      </c>
-      <c r="R37" s="7">
-        <v>2</v>
-      </c>
-      <c r="S37" s="7">
-        <v>2</v>
-      </c>
-      <c r="T37" s="7">
-        <v>2</v>
-      </c>
-      <c r="U37" s="7">
-        <v>2</v>
-      </c>
-      <c r="V37" s="7">
-        <v>0</v>
-      </c>
-      <c r="W37" s="7">
-        <v>0</v>
-      </c>
-      <c r="X37" s="3"/>
+      <c r="AA36" s="3"/>
+    </row>
+    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A37" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8">
+        <f>44 - 44/20</f>
+        <v>41.8</v>
+      </c>
+      <c r="E37" s="8">
+        <f>D37 - 44/20</f>
+        <v>39.599999999999994</v>
+      </c>
+      <c r="F37" s="8">
+        <f t="shared" ref="F37:W37" si="0">E37 - 44/20</f>
+        <v>37.399999999999991</v>
+      </c>
+      <c r="G37" s="8">
+        <f t="shared" si="0"/>
+        <v>35.199999999999989</v>
+      </c>
+      <c r="H37" s="8">
+        <f t="shared" si="0"/>
+        <v>32.999999999999986</v>
+      </c>
+      <c r="I37" s="8">
+        <f t="shared" si="0"/>
+        <v>30.799999999999986</v>
+      </c>
+      <c r="J37" s="8">
+        <f t="shared" si="0"/>
+        <v>28.599999999999987</v>
+      </c>
+      <c r="K37" s="8">
+        <f t="shared" si="0"/>
+        <v>26.399999999999988</v>
+      </c>
+      <c r="L37" s="8">
+        <f t="shared" si="0"/>
+        <v>24.199999999999989</v>
+      </c>
+      <c r="M37" s="8">
+        <f t="shared" si="0"/>
+        <v>21.999999999999989</v>
+      </c>
+      <c r="N37" s="8">
+        <f t="shared" si="0"/>
+        <v>19.79999999999999</v>
+      </c>
+      <c r="O37" s="8">
+        <f t="shared" si="0"/>
+        <v>17.599999999999991</v>
+      </c>
+      <c r="P37" s="8">
+        <f t="shared" si="0"/>
+        <v>15.399999999999991</v>
+      </c>
+      <c r="Q37" s="8">
+        <f t="shared" si="0"/>
+        <v>13.199999999999992</v>
+      </c>
+      <c r="R37" s="8">
+        <f t="shared" si="0"/>
+        <v>10.999999999999993</v>
+      </c>
+      <c r="S37" s="8">
+        <f t="shared" si="0"/>
+        <v>8.7999999999999936</v>
+      </c>
+      <c r="T37" s="8">
+        <f t="shared" si="0"/>
+        <v>6.5999999999999934</v>
+      </c>
+      <c r="U37" s="8">
+        <f t="shared" si="0"/>
+        <v>4.3999999999999932</v>
+      </c>
+      <c r="V37" s="8">
+        <f t="shared" si="0"/>
+        <v>2.1999999999999931</v>
+      </c>
+      <c r="W37" s="8">
+        <v>0</v>
+      </c>
+      <c r="X37" s="8">
+        <f>SUM(D19:D36)</f>
+        <v>44</v>
+      </c>
       <c r="Y37" s="3"/>
       <c r="Z37" s="3"/>
-    </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA37" s="3"/>
+    </row>
+    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
       <c r="D38" s="8">
-        <f>45 - 45/20</f>
-        <v>42.75</v>
+        <f>SUM(D19:D36)</f>
+        <v>44</v>
       </c>
       <c r="E38" s="8">
-        <f>D38 - 45/20</f>
-        <v>40.5</v>
+        <f t="shared" ref="E38:X38" si="1">SUM(E19:E36)</f>
+        <v>44</v>
       </c>
       <c r="F38" s="8">
-        <f t="shared" ref="F38:W38" si="0">E38 - 45/20</f>
-        <v>38.25</v>
+        <f t="shared" si="1"/>
+        <v>44</v>
       </c>
       <c r="G38" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="H38" s="8">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="I38" s="8">
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="H38" s="8">
-        <f t="shared" si="0"/>
-        <v>33.75</v>
-      </c>
-      <c r="I38" s="8">
-        <f t="shared" si="0"/>
-        <v>31.5</v>
-      </c>
       <c r="J38" s="8">
-        <f t="shared" si="0"/>
-        <v>29.25</v>
+        <f t="shared" si="1"/>
+        <v>36</v>
       </c>
       <c r="K38" s="8">
-        <f t="shared" si="0"/>
-        <v>27</v>
+        <f t="shared" si="1"/>
+        <v>36</v>
       </c>
       <c r="L38" s="8">
-        <f t="shared" si="0"/>
-        <v>24.75</v>
+        <f t="shared" si="1"/>
+        <v>30</v>
       </c>
       <c r="M38" s="8">
-        <f t="shared" si="0"/>
-        <v>22.5</v>
+        <f t="shared" si="1"/>
+        <v>30</v>
       </c>
       <c r="N38" s="8">
-        <f t="shared" si="0"/>
-        <v>20.25</v>
+        <f t="shared" si="1"/>
+        <v>26</v>
       </c>
       <c r="O38" s="8">
-        <f t="shared" si="0"/>
-        <v>18</v>
+        <f t="shared" si="1"/>
+        <v>20</v>
       </c>
       <c r="P38" s="8">
-        <f t="shared" si="0"/>
-        <v>15.75</v>
+        <f t="shared" si="1"/>
+        <v>20</v>
       </c>
       <c r="Q38" s="8">
-        <f t="shared" si="0"/>
-        <v>13.5</v>
+        <f t="shared" si="1"/>
+        <v>14</v>
       </c>
       <c r="R38" s="8">
-        <f t="shared" si="0"/>
-        <v>11.25</v>
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
       <c r="S38" s="8">
-        <f t="shared" si="0"/>
-        <v>9</v>
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
       <c r="T38" s="8">
-        <f t="shared" si="0"/>
-        <v>6.75</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="U38" s="8">
-        <f t="shared" si="0"/>
-        <v>4.5</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="V38" s="8">
-        <f t="shared" si="0"/>
-        <v>2.25</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="W38" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="X38" s="3"/>
+        <f>SUM(W19:W36)</f>
+        <v>0</v>
+      </c>
+      <c r="X38" s="8">
+        <f t="shared" si="1"/>
+        <v>57</v>
+      </c>
       <c r="Y38" s="3"/>
       <c r="Z38" s="3"/>
-    </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A39" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B39" s="8"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8">
-        <f>SUM(D19:D37)</f>
-        <v>45</v>
-      </c>
-      <c r="E39" s="8">
-        <f t="shared" ref="D39:W39" si="1">SUM(E19:E37)</f>
-        <v>45</v>
-      </c>
-      <c r="F39" s="8">
-        <f t="shared" si="1"/>
-        <v>45</v>
-      </c>
-      <c r="G39" s="8">
-        <f t="shared" si="1"/>
-        <v>45</v>
-      </c>
-      <c r="H39" s="8">
-        <f t="shared" si="1"/>
-        <v>45</v>
-      </c>
-      <c r="I39" s="8">
-        <f t="shared" si="1"/>
-        <v>37</v>
-      </c>
-      <c r="J39" s="8">
-        <f t="shared" si="1"/>
-        <v>37</v>
-      </c>
-      <c r="K39" s="8">
-        <f t="shared" si="1"/>
-        <v>37</v>
-      </c>
-      <c r="L39" s="8">
-        <f t="shared" si="1"/>
-        <v>31</v>
-      </c>
-      <c r="M39" s="8">
-        <f t="shared" si="1"/>
-        <v>31</v>
-      </c>
-      <c r="N39" s="8">
-        <f t="shared" si="1"/>
-        <v>26</v>
-      </c>
-      <c r="O39" s="8">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="P39" s="8">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="Q39" s="8">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="R39" s="8">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="S39" s="8">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="T39" s="8">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="U39" s="8">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="V39" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="W39" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="AA38" s="3"/>
+    </row>
+    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A39" s="3"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+      <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40" s="4"/>
       <c r="C40" s="3"/>
@@ -3601,7 +3632,7 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41" s="4"/>
       <c r="C41" s="3"/>
@@ -3629,7 +3660,7 @@
       <c r="Y41" s="3"/>
       <c r="Z41" s="3"/>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="B42" s="4"/>
       <c r="C42" s="3"/>
@@ -3657,7 +3688,7 @@
       <c r="Y42" s="3"/>
       <c r="Z42" s="3"/>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
       <c r="B43" s="4"/>
       <c r="C43" s="3"/>
@@ -3685,7 +3716,7 @@
       <c r="Y43" s="3"/>
       <c r="Z43" s="3"/>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
       <c r="B44" s="4"/>
       <c r="C44" s="3"/>
@@ -3713,7 +3744,7 @@
       <c r="Y44" s="3"/>
       <c r="Z44" s="3"/>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
       <c r="B45" s="4"/>
       <c r="C45" s="3"/>
@@ -3741,7 +3772,7 @@
       <c r="Y45" s="3"/>
       <c r="Z45" s="3"/>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
       <c r="B46" s="4"/>
       <c r="C46" s="3"/>
@@ -3769,7 +3800,7 @@
       <c r="Y46" s="3"/>
       <c r="Z46" s="3"/>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
       <c r="B47" s="4"/>
       <c r="C47" s="3"/>
@@ -3797,7 +3828,7 @@
       <c r="Y47" s="3"/>
       <c r="Z47" s="3"/>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
       <c r="B48" s="4"/>
       <c r="C48" s="3"/>
@@ -4999,7 +5030,6 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-      <c r="Z90" s="3"/>
     </row>
     <row r="91" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A91" s="3"/>
@@ -5163,7 +5193,7 @@
       <c r="X96" s="3"/>
       <c r="Y96" s="3"/>
     </row>
-    <row r="97" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A97" s="3"/>
       <c r="B97" s="4"/>
       <c r="C97" s="3"/>
@@ -5187,10 +5217,8 @@
       <c r="U97" s="3"/>
       <c r="V97" s="3"/>
       <c r="W97" s="3"/>
-      <c r="X97" s="3"/>
-      <c r="Y97" s="3"/>
-    </row>
-    <row r="98" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="98" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A98" s="3"/>
       <c r="B98" s="4"/>
       <c r="C98" s="3"/>
@@ -5215,7 +5243,7 @@
       <c r="V98" s="3"/>
       <c r="W98" s="3"/>
     </row>
-    <row r="99" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A99" s="3"/>
       <c r="B99" s="4"/>
       <c r="C99" s="3"/>
@@ -5240,7 +5268,7 @@
       <c r="V99" s="3"/>
       <c r="W99" s="3"/>
     </row>
-    <row r="100" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A100" s="3"/>
       <c r="B100" s="4"/>
       <c r="C100" s="3"/>
@@ -5265,7 +5293,7 @@
       <c r="V100" s="3"/>
       <c r="W100" s="3"/>
     </row>
-    <row r="101" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A101" s="3"/>
       <c r="B101" s="4"/>
       <c r="C101" s="3"/>
@@ -5290,7 +5318,7 @@
       <c r="V101" s="3"/>
       <c r="W101" s="3"/>
     </row>
-    <row r="102" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A102" s="3"/>
       <c r="B102" s="4"/>
       <c r="C102" s="3"/>
@@ -5315,7 +5343,7 @@
       <c r="V102" s="3"/>
       <c r="W102" s="3"/>
     </row>
-    <row r="103" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A103" s="3"/>
       <c r="B103" s="4"/>
       <c r="C103" s="3"/>
@@ -5340,7 +5368,7 @@
       <c r="V103" s="3"/>
       <c r="W103" s="3"/>
     </row>
-    <row r="104" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A104" s="3"/>
       <c r="B104" s="4"/>
       <c r="C104" s="3"/>
@@ -5365,7 +5393,7 @@
       <c r="V104" s="3"/>
       <c r="W104" s="3"/>
     </row>
-    <row r="105" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A105" s="3"/>
       <c r="B105" s="4"/>
       <c r="C105" s="3"/>
@@ -5390,7 +5418,7 @@
       <c r="V105" s="3"/>
       <c r="W105" s="3"/>
     </row>
-    <row r="106" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A106" s="3"/>
       <c r="B106" s="4"/>
       <c r="C106" s="3"/>
@@ -5415,7 +5443,7 @@
       <c r="V106" s="3"/>
       <c r="W106" s="3"/>
     </row>
-    <row r="107" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A107" s="3"/>
       <c r="B107" s="4"/>
       <c r="C107" s="3"/>
@@ -5440,7 +5468,7 @@
       <c r="V107" s="3"/>
       <c r="W107" s="3"/>
     </row>
-    <row r="108" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A108" s="3"/>
       <c r="B108" s="4"/>
       <c r="C108" s="3"/>
@@ -5465,7 +5493,7 @@
       <c r="V108" s="3"/>
       <c r="W108" s="3"/>
     </row>
-    <row r="109" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A109" s="3"/>
       <c r="B109" s="4"/>
       <c r="C109" s="3"/>
@@ -5490,7 +5518,7 @@
       <c r="V109" s="3"/>
       <c r="W109" s="3"/>
     </row>
-    <row r="110" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A110" s="3"/>
       <c r="B110" s="4"/>
       <c r="C110" s="3"/>
@@ -5515,7 +5543,7 @@
       <c r="V110" s="3"/>
       <c r="W110" s="3"/>
     </row>
-    <row r="111" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A111" s="3"/>
       <c r="B111" s="4"/>
       <c r="C111" s="3"/>
@@ -5540,7 +5568,7 @@
       <c r="V111" s="3"/>
       <c r="W111" s="3"/>
     </row>
-    <row r="112" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A112" s="3"/>
       <c r="B112" s="4"/>
       <c r="C112" s="3"/>
@@ -5701,19 +5729,6 @@
       <c r="H118" s="3"/>
       <c r="I118" s="3"/>
       <c r="J118" s="3"/>
-      <c r="K118" s="3"/>
-      <c r="L118" s="3"/>
-      <c r="M118" s="3"/>
-      <c r="N118" s="3"/>
-      <c r="O118" s="3"/>
-      <c r="P118" s="3"/>
-      <c r="Q118" s="3"/>
-      <c r="R118" s="3"/>
-      <c r="S118" s="3"/>
-      <c r="T118" s="3"/>
-      <c r="U118" s="3"/>
-      <c r="V118" s="3"/>
-      <c r="W118" s="3"/>
     </row>
     <row r="119" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A119" s="3"/>
@@ -5931,18 +5946,6 @@
       <c r="I136" s="3"/>
       <c r="J136" s="3"/>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A137" s="3"/>
-      <c r="B137" s="4"/>
-      <c r="C137" s="3"/>
-      <c r="D137" s="3"/>
-      <c r="E137" s="3"/>
-      <c r="F137" s="3"/>
-      <c r="G137" s="3"/>
-      <c r="H137" s="3"/>
-      <c r="I137" s="3"/>
-      <c r="J137" s="3"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
